--- a/src/test/resources/webelements.xlsx
+++ b/src/test/resources/webelements.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\page-object-framework\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShariqueA\OneDrive - AXA\Documents\Automation-Personal\VistaAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1990C1D0-215B-4FE8-A1FA-5C8133A7346E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82AC23E-9402-4FD4-8197-D65FB6B192C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="loginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="ObjectRepository" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>locatorType</t>
   </si>
@@ -36,25 +36,136 @@
     <t>name</t>
   </si>
   <si>
-    <t>uid</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
-    <t>btnLogin</t>
-  </si>
-  <si>
     <t>locatorName</t>
   </si>
   <si>
-    <t>userIdField</t>
-  </si>
-  <si>
-    <t>passwordField</t>
-  </si>
-  <si>
-    <t>loginButton</t>
+    <t>SignInLink</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),"Sign in")]</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>UserIdTxtFld</t>
+  </si>
+  <si>
+    <t>PwdTxtField</t>
+  </si>
+  <si>
+    <t>ForgotPwdLink</t>
+  </si>
+  <si>
+    <t>SignInBtn</t>
+  </si>
+  <si>
+    <t>RegisterationLink</t>
+  </si>
+  <si>
+    <t>//div[@class='forgot-password']/a</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>submit-login</t>
+  </si>
+  <si>
+    <t>//div[@class='no-account']/a</t>
+  </si>
+  <si>
+    <t>ExistingLoginAcnt</t>
+  </si>
+  <si>
+    <t>FirstNameTxtFld</t>
+  </si>
+  <si>
+    <t>LastNameTxtFld</t>
+  </si>
+  <si>
+    <t>EmailTxtFld</t>
+  </si>
+  <si>
+    <t>PwdTxtFld</t>
+  </si>
+  <si>
+    <t>DOBTxtFld</t>
+  </si>
+  <si>
+    <t>RegisterationSaveBtn</t>
+  </si>
+  <si>
+    <t>RcvOfferCheckbox</t>
+  </si>
+  <si>
+    <t>TermsCheckbox</t>
+  </si>
+  <si>
+    <t>NewsLetterSignUpCheckbox</t>
+  </si>
+  <si>
+    <t>DataPrivacyCheckbox</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>LogInPage</t>
+  </si>
+  <si>
+    <t>RegisterationPage</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Log in instead!')]</t>
+  </si>
+  <si>
+    <t>SocialTitleMaleRadio</t>
+  </si>
+  <si>
+    <t>SocialTitleFemaleRadio</t>
+  </si>
+  <si>
+    <t>field-id_gender-2</t>
+  </si>
+  <si>
+    <t>field-id_gender-1</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>newsletter</t>
+  </si>
+  <si>
+    <t>//button[@data-action='show-password']</t>
+  </si>
+  <si>
+    <t>PwdShowHideBtn</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>optin</t>
+  </si>
+  <si>
+    <t>psgdpr</t>
+  </si>
+  <si>
+    <t>customer_privacy</t>
+  </si>
+  <si>
+    <t>//button[@type='submit']</t>
   </si>
 </sst>
 </file>
@@ -90,8 +201,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,64 +486,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/webelements.xlsx
+++ b/src/test/resources/webelements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShariqueA\OneDrive - AXA\Documents\Automation-Personal\VistaAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82AC23E-9402-4FD4-8197-D65FB6B192C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C39320-B565-4958-B280-DD965AAE7627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>locatorType</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>//button[@type='submit']</t>
+  </si>
+  <si>
+    <t>//a[@class='account']//span</t>
+  </si>
+  <si>
+    <t>LoggedInUser</t>
+  </si>
+  <si>
+    <t>HomePage</t>
   </si>
 </sst>
 </file>
@@ -486,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,6 +804,20 @@
         <v>46</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/webelements.xlsx
+++ b/src/test/resources/webelements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShariqueA\OneDrive - AXA\Documents\Automation-Personal\VistaAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C39320-B565-4958-B280-DD965AAE7627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2446F2A5-029E-4683-8749-3537FB831ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
   <si>
     <t>locatorType</t>
   </si>
@@ -175,6 +175,48 @@
   </si>
   <si>
     <t>HomePage</t>
+  </si>
+  <si>
+    <t>//a[@class='logout hidden-sm-down']</t>
+  </si>
+  <si>
+    <t>SignOutBtn</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>SearchCtlgTxtField</t>
+  </si>
+  <si>
+    <t>//img[@class='logo img-fluid']</t>
+  </si>
+  <si>
+    <t>MyStoreLogo</t>
+  </si>
+  <si>
+    <t>ClothesMenuLink</t>
+  </si>
+  <si>
+    <t>//li[@id='category-3']</t>
+  </si>
+  <si>
+    <t>AccessoriesMenuLink</t>
+  </si>
+  <si>
+    <t>ArtMenuLink</t>
+  </si>
+  <si>
+    <t>//li[@id='category-6']</t>
+  </si>
+  <si>
+    <t>//li[@id='category-9']</t>
+  </si>
+  <si>
+    <t>SubMenuLink</t>
+  </si>
+  <si>
+    <t>//a[@class='dropdown-item dropdown-submenu']</t>
   </si>
 </sst>
 </file>
@@ -495,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +548,7 @@
     <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -818,6 +860,104 @@
         <v>47</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/webelements.xlsx
+++ b/src/test/resources/webelements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShariqueA\OneDrive - AXA\Documents\Automation-Personal\VistaAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2446F2A5-029E-4683-8749-3537FB831ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD24451C-F5EA-42C3-91C3-AEB64FED97AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
   <si>
     <t>locatorType</t>
   </si>
@@ -198,25 +198,106 @@
     <t>ClothesMenuLink</t>
   </si>
   <si>
-    <t>//li[@id='category-3']</t>
-  </si>
-  <si>
     <t>AccessoriesMenuLink</t>
   </si>
   <si>
     <t>ArtMenuLink</t>
   </si>
   <si>
-    <t>//li[@id='category-6']</t>
-  </si>
-  <si>
-    <t>//li[@id='category-9']</t>
-  </si>
-  <si>
     <t>SubMenuLink</t>
   </si>
   <si>
-    <t>//a[@class='dropdown-item dropdown-submenu']</t>
+    <t>//li[@id='category-3']/a</t>
+  </si>
+  <si>
+    <t>//li[@id='category-6']/a</t>
+  </si>
+  <si>
+    <t>//li[@id='category-9']/a</t>
+  </si>
+  <si>
+    <t>ProductTitleList</t>
+  </si>
+  <si>
+    <t>ShoppingPage</t>
+  </si>
+  <si>
+    <t>ProductPriceList</t>
+  </si>
+  <si>
+    <t>//h2[@class='h3 product-title']/a//parent::h2//following-sibling::div//span</t>
+  </si>
+  <si>
+    <t>quantity_wanted</t>
+  </si>
+  <si>
+    <t>QuanityTxtField</t>
+  </si>
+  <si>
+    <t>//button[@class='btn btn-primary add-to-cart']</t>
+  </si>
+  <si>
+    <t>Add2CartBtn</t>
+  </si>
+  <si>
+    <t>//div[@class='cart-content-btn']/a</t>
+  </si>
+  <si>
+    <t>Prcd2ChkOut</t>
+  </si>
+  <si>
+    <t>//p[@class='cart-products-count']</t>
+  </si>
+  <si>
+    <t>CartItemCountTxt</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Proceed to checkout')]</t>
+  </si>
+  <si>
+    <t>Prcd2ChkOutConfirmation</t>
+  </si>
+  <si>
+    <t>confirm-addresses</t>
+  </si>
+  <si>
+    <t>AddressConfirmBtn</t>
+  </si>
+  <si>
+    <t>confirmDeliveryOption</t>
+  </si>
+  <si>
+    <t>DlvryConfirmBtn</t>
+  </si>
+  <si>
+    <t>PaymentOptionCheckbox</t>
+  </si>
+  <si>
+    <t>//label[contains(@for,'payment-option')]//span</t>
+  </si>
+  <si>
+    <t>PaymentTextLabel</t>
+  </si>
+  <si>
+    <t>conditions_to_approve[terms-and-conditions]</t>
+  </si>
+  <si>
+    <t>PaymentTnCCheckbox</t>
+  </si>
+  <si>
+    <t>//div[@id='payment-confirmation']//button</t>
+  </si>
+  <si>
+    <t>PlaceOrderBtn</t>
+  </si>
+  <si>
+    <t>//ul[@class='top-menu']//*[contains(text(),"{%s}")]</t>
+  </si>
+  <si>
+    <t>//h2[@class='h3 product-title']/a[text()='{%s}']</t>
+  </si>
+  <si>
+    <t>//input[@data-module-name='{%s}']</t>
   </si>
 </sst>
 </file>
@@ -537,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +629,7 @@
     <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -913,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,13 +1002,13 @@
         <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -935,13 +1016,13 @@
         <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -949,13 +1030,195 @@
         <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/webelements.xlsx
+++ b/src/test/resources/webelements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShariqueA\OneDrive - AXA\Documents\Automation-Personal\VistaAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD24451C-F5EA-42C3-91C3-AEB64FED97AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1209FAF8-C4DB-407C-96D1-DDC33CF287F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,7 +621,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
